--- a/personalworksheet.xlsx
+++ b/personalworksheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saikiran\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\saikiran\courses\GITWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7149C22D-369E-493E-8151-D813DDFD1280}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF002F4A-5BAE-4A82-B41A-FF2CF4A1753E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spring" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>body pains and cold</t>
+  </si>
+  <si>
+    <t>spring maven project</t>
   </si>
 </sst>
 </file>
@@ -403,7 +406,7 @@
   <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,6 +510,12 @@
       <c r="A10" s="1">
         <v>43698</v>
       </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1022,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C68749C-F85A-4775-ABE8-1BEEA06B5086}">
   <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,6 +1117,9 @@
       <c r="A10" s="1">
         <v>43698</v>
       </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1688,7 +1700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403A9049-B222-473E-9532-416E1D7FCF87}">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/personalworksheet.xlsx
+++ b/personalworksheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\saikiran\courses\GITWS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\final\gitws\PIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF002F4A-5BAE-4A82-B41A-FF2CF4A1753E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="spring" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -79,11 +78,17 @@
   <si>
     <t>spring maven project</t>
   </si>
+  <si>
+    <t>spting continer working</t>
+  </si>
+  <si>
+    <t>lazy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,11 +407,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,6 +526,12 @@
       <c r="A11" s="1">
         <v>43699</v>
       </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1028,11 +1039,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C68749C-F85A-4775-ABE8-1BEEA06B5086}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,6 +1136,9 @@
       <c r="A11" s="1">
         <v>43699</v>
       </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1697,7 +1711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403A9049-B222-473E-9532-416E1D7FCF87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/personalworksheet.xlsx
+++ b/personalworksheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\final\gitws\PIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\saikiran\courses\GITWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF92B74-6AB6-49CC-9AB1-14D2DBAB40FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spring" sheetId="1" r:id="rId1"/>
@@ -79,16 +80,16 @@
     <t>spring maven project</t>
   </si>
   <si>
-    <t>spting continer working</t>
+    <t>lazy</t>
   </si>
   <si>
-    <t>lazy</t>
+    <t>spting continer working backgroud</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,10 +408,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -530,7 +531,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1039,7 +1040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1137,7 +1138,7 @@
         <v>43699</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1711,10 +1712,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/personalworksheet.xlsx
+++ b/personalworksheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\saikiran\courses\GITWS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\final\gitws\PIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF92B74-6AB6-49CC-9AB1-14D2DBAB40FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="spring" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -48,9 +47,6 @@
   </si>
   <si>
     <t>noclass</t>
-  </si>
-  <si>
-    <t>spirng core started</t>
   </si>
   <si>
     <t>spring modules</t>
@@ -85,11 +81,20 @@
   <si>
     <t>spting continer working backgroud</t>
   </si>
+  <si>
+    <t>dependency injection</t>
+  </si>
+  <si>
+    <t>spring introduction and sample modules</t>
+  </si>
+  <si>
+    <t>spirng core started(IOC)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,18 +413,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -441,7 +446,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -452,7 +457,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -462,6 +467,9 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -471,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -498,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -509,7 +517,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -520,7 +528,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -531,12 +539,18 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43700</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1040,11 +1054,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1104,7 @@
         <v>43693</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1114,7 +1128,7 @@
         <v>43696</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1122,7 +1136,7 @@
         <v>43697</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1130,7 +1144,7 @@
         <v>43698</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1138,12 +1152,15 @@
         <v>43699</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43700</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1712,11 +1729,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
@@ -1777,7 +1794,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1788,7 +1805,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">

--- a/personalworksheet.xlsx
+++ b/personalworksheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="spring" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="25">
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>GUM</t>
   </si>
   <si>
     <t>spring</t>
@@ -88,7 +85,22 @@
     <t>spring introduction and sample modules</t>
   </si>
   <si>
-    <t>spirng core started(IOC)</t>
+    <t>spirng core started</t>
+  </si>
+  <si>
+    <t>maven&amp; spring ioc</t>
+  </si>
+  <si>
+    <t>staters and annatations of spring boot</t>
+  </si>
+  <si>
+    <t>properties file and scan base packages and configuring beans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no sleep </t>
+  </si>
+  <si>
+    <t>GYM</t>
   </si>
 </sst>
 </file>
@@ -130,10 +142,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,619 +448,700 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43690</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+        <v>43684</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43691</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="A3" s="6">
+        <v>43685</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43692</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
+      <c r="A4" s="4">
+        <v>43686</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43693</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="A5" s="4">
+        <v>43687</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>43688</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>43689</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43694</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>43695</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43696</v>
+        <v>43690</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43697</v>
+        <v>43691</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43698</v>
+        <v>43692</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43699</v>
+        <v>43693</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43700</v>
+        <v>43694</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43701</v>
+        <v>43695</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43702</v>
+        <v>43696</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43703</v>
+        <v>43697</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <v>43698</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43699</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43700</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43701</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43702</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43703</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>43704</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>43705</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>43706</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>43707</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>43708</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>43709</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>43710</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>43711</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>43712</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>43713</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>43714</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>43715</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>43716</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>43717</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>43718</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>43719</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>43720</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>43721</v>
+        <v>43715</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>43722</v>
+        <v>43716</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>43723</v>
+        <v>43717</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>43724</v>
+        <v>43718</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>43725</v>
+        <v>43719</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>43726</v>
+        <v>43720</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>43727</v>
+        <v>43721</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>43728</v>
+        <v>43722</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>43729</v>
+        <v>43723</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>43730</v>
+        <v>43724</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>43731</v>
+        <v>43725</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43732</v>
+        <v>43726</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>43733</v>
+        <v>43727</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>43734</v>
+        <v>43728</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>43735</v>
+        <v>43729</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>43736</v>
+        <v>43730</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>43737</v>
+        <v>43731</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>43738</v>
+        <v>43732</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>43739</v>
+        <v>43733</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>43740</v>
+        <v>43734</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>43741</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>43742</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>43743</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>43744</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>43745</v>
+        <v>43739</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>43746</v>
+        <v>43740</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>43747</v>
+        <v>43741</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>43748</v>
+        <v>43742</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>43749</v>
+        <v>43743</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>43750</v>
+        <v>43744</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>43751</v>
+        <v>43745</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>43752</v>
+        <v>43746</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>43753</v>
+        <v>43747</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>43754</v>
+        <v>43748</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>43755</v>
+        <v>43749</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>43756</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>43757</v>
+        <v>43751</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>43758</v>
+        <v>43752</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>43759</v>
+        <v>43753</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>43760</v>
+        <v>43754</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>43761</v>
+        <v>43755</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>43762</v>
+        <v>43756</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>43763</v>
+        <v>43757</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>43764</v>
+        <v>43758</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>43765</v>
+        <v>43759</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>43766</v>
+        <v>43760</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>43767</v>
+        <v>43761</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>43768</v>
+        <v>43762</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>43769</v>
+        <v>43763</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>43770</v>
+        <v>43764</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>43771</v>
+        <v>43765</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>43772</v>
+        <v>43766</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>43773</v>
+        <v>43767</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>43774</v>
+        <v>43768</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>43775</v>
+        <v>43769</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>43776</v>
+        <v>43770</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>43777</v>
+        <v>43771</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>43778</v>
+        <v>43772</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>43779</v>
+        <v>43773</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>43780</v>
+        <v>43774</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>43781</v>
+        <v>43775</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>43782</v>
+        <v>43776</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>43783</v>
+        <v>43777</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>43784</v>
+        <v>43778</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>43785</v>
+        <v>43779</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>43786</v>
+        <v>43780</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>43787</v>
+        <v>43781</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>43788</v>
+        <v>43782</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>43789</v>
+        <v>43783</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>43790</v>
+        <v>43784</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>43791</v>
+        <v>43785</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>43792</v>
+        <v>43786</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>43793</v>
+        <v>43787</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>43794</v>
+        <v>43788</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>43795</v>
+        <v>43789</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>43796</v>
+        <v>43790</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>43797</v>
+        <v>43791</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>43798</v>
+        <v>43792</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
+        <v>43793</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>43794</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>43795</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>43796</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>43797</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>43798</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
         <v>43799</v>
       </c>
     </row>
@@ -1057,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1080,7 +1177,7 @@
         <v>43690</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1088,7 +1185,7 @@
         <v>43691</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1096,7 +1193,7 @@
         <v>43692</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1104,7 +1201,7 @@
         <v>43693</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1112,7 +1209,7 @@
         <v>43694</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1120,7 +1217,7 @@
         <v>43695</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1128,7 +1225,7 @@
         <v>43696</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1136,7 +1233,7 @@
         <v>43697</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1144,7 +1241,7 @@
         <v>43698</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1152,7 +1249,7 @@
         <v>43699</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1160,17 +1257,23 @@
         <v>43700</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43701</v>
       </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43702</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1732,15 +1835,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1748,10 +1851,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1759,7 +1862,7 @@
         <v>43690</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1767,7 +1870,7 @@
         <v>43691</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1775,7 +1878,7 @@
         <v>43692</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1783,7 +1886,7 @@
         <v>43693</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1791,10 +1894,10 @@
         <v>43694</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1802,10 +1905,10 @@
         <v>43695</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1813,7 +1916,7 @@
         <v>43696</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1821,7 +1924,7 @@
         <v>43697</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1829,7 +1932,7 @@
         <v>43698</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1837,7 +1940,7 @@
         <v>43699</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1845,7 +1948,7 @@
         <v>43700</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1853,7 +1956,10 @@
         <v>43701</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1861,95 +1967,119 @@
         <v>43702</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43703</v>
       </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43704</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43705</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43706</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43707</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43708</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43709</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43710</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43711</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43712</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43713</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43714</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43715</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43716</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43717</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43718</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43719</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43720</v>
       </c>

--- a/personalworksheet.xlsx
+++ b/personalworksheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\final\gitws\PIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\saikiran\courses\GITWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793DB647-9819-4D11-B50B-B6316D3160A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spring" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -101,12 +102,21 @@
   </si>
   <si>
     <t>GYM</t>
+  </si>
+  <si>
+    <t>package-info.java and module-info.java,interface reference to implemented class object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ApplicationContext continer and its implemented class , Resources and messagesource </t>
+  </si>
+  <si>
+    <t>about attributes of &lt;bean&gt; tag  'lazy-init'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -150,6 +160,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,18 +442,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="169" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -652,6 +665,9 @@
       <c r="B21" t="s">
         <v>2</v>
       </c>
+      <c r="C21" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -660,6 +676,9 @@
       <c r="B22" t="s">
         <v>2</v>
       </c>
+      <c r="C22" s="7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -667,6 +686,9 @@
       </c>
       <c r="B23" t="s">
         <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1151,11 +1173,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,88 +1302,97 @@
       <c r="A15" s="1">
         <v>43703</v>
       </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43704</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43705</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43706</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43707</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43708</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43709</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43710</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43711</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43712</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43713</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43714</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43715</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43716</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43717</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43718</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43719</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43720</v>
       </c>
@@ -1832,7 +1863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/personalworksheet.xlsx
+++ b/personalworksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\saikiran\courses\GITWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793DB647-9819-4D11-B50B-B6316D3160A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC2D69E-EBF4-4198-8B14-0531710CE055}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>about attributes of &lt;bean&gt; tag  'lazy-init'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about multiple spring config files in project and import tag  and alias tag in spring config file </t>
+  </si>
+  <si>
+    <t xml:space="preserve">internals of continer using log4j </t>
   </si>
 </sst>
 </file>
@@ -445,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,6 +704,9 @@
       <c r="B24" t="s">
         <v>2</v>
       </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -706,15 +715,24 @@
       <c r="B25" t="s">
         <v>2</v>
       </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43708</v>
       </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43709</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1176,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,10 +1344,16 @@
       <c r="A18" s="1">
         <v>43706</v>
       </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43707</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">

--- a/personalworksheet.xlsx
+++ b/personalworksheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\saikiran\courses\GITWS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\final\gitws\PIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC2D69E-EBF4-4198-8B14-0531710CE055}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="spring" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -117,12 +116,24 @@
   </si>
   <si>
     <t xml:space="preserve">internals of continer using log4j </t>
+  </si>
+  <si>
+    <t>annotations</t>
+  </si>
+  <si>
+    <t>reflection api</t>
+  </si>
+  <si>
+    <t>&lt;exclusions&gt; tag in pom.xml snd exclude element of @SpringBootApplicaton and externalization in spring</t>
+  </si>
+  <si>
+    <t>autoconfiguation.jar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -448,11 +459,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,6 +737,9 @@
       <c r="B26" t="s">
         <v>2</v>
       </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -734,10 +748,16 @@
       <c r="B27" t="s">
         <v>2</v>
       </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43710</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1191,11 +1211,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B124"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,10 +1380,16 @@
       <c r="A20" s="1">
         <v>43708</v>
       </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43709</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1887,11 +1913,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,7 +2070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43705</v>
       </c>
@@ -2052,7 +2078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43706</v>
       </c>
@@ -2060,7 +2086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43707</v>
       </c>
@@ -2068,73 +2094,100 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43708</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43709</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43710</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43711</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43712</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43713</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43714</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43715</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43716</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43717</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43718</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43719</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43720</v>
       </c>

--- a/personalworksheet.xlsx
+++ b/personalworksheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="spring" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>autoconfiguation.jar</t>
+  </si>
+  <si>
+    <t>creating multiple containers in spring and using "ref" attribute in &lt;property&gt; tag and debuging code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constractor injection and attributes in &lt;constractor-arg&gt; tag </t>
   </si>
 </sst>
 </file>
@@ -462,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,15 +770,30 @@
       <c r="A29" s="1">
         <v>43711</v>
       </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43712</v>
       </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43713</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1215,7 +1236,7 @@
   <dimension ref="A1:B124"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,7 +1402,7 @@
         <v>43708</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1396,15 +1417,24 @@
       <c r="A22" s="1">
         <v>43710</v>
       </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43711</v>
       </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43712</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1916,7 +1946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>

--- a/personalworksheet.xlsx
+++ b/personalworksheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="spring" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -134,6 +134,27 @@
   </si>
   <si>
     <t xml:space="preserve">constractor injection and attributes in &lt;constractor-arg&gt; tag </t>
+  </si>
+  <si>
+    <t>package class of Reflection API</t>
+  </si>
+  <si>
+    <t>about AnnotatedElement interface and processing code of annotaions</t>
+  </si>
+  <si>
+    <t>Data binding in spirng</t>
+  </si>
+  <si>
+    <t>went to class</t>
+  </si>
+  <si>
+    <t>spring boot  jdbc</t>
+  </si>
+  <si>
+    <t>configuring set,list,map,properties in spring bean config file and inner bean and bean inhiretence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autowiring by byName,byType </t>
   </si>
 </sst>
 </file>
@@ -468,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,83 +821,116 @@
       <c r="A32" s="1">
         <v>43714</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43715</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43716</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43717</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43718</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43719</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43720</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43721</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43722</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43723</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43724</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43725</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43726</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43727</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43728</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43729</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43730</v>
       </c>
@@ -1235,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,30 +1495,48 @@
       <c r="A25" s="1">
         <v>43713</v>
       </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43714</v>
       </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43715</v>
       </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43716</v>
       </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43717</v>
       </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43718</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1946,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2193,111 +2265,135 @@
       <c r="B27" t="s">
         <v>2</v>
       </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43716</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43717</v>
       </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43718</v>
       </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43719</v>
       </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43720</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43721</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43722</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43723</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43724</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43725</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43726</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43727</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43728</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43729</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43730</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43731</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43732</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43733</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43734</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43735</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43736</v>
       </c>

--- a/personalworksheet.xlsx
+++ b/personalworksheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="spring" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -155,6 +155,21 @@
   </si>
   <si>
     <t xml:space="preserve">autowiring by byName,byType </t>
+  </si>
+  <si>
+    <t>Spring data jpa</t>
+  </si>
+  <si>
+    <t>annomas inner class and lambida expressiions</t>
+  </si>
+  <si>
+    <t>init-method and destory-methode attributes on &lt;bean&gt;  tag and callback methods</t>
+  </si>
+  <si>
+    <t>p-namespace and c-namespace of bean tag and @required annotation in bean</t>
+  </si>
+  <si>
+    <t>componentscan annotaion and tag</t>
   </si>
 </sst>
 </file>
@@ -489,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,20 +894,41 @@
       <c r="B37" t="s">
         <v>2</v>
       </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43720</v>
       </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43721</v>
       </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43722</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1290,7 +1326,7 @@
   <dimension ref="A1:B124"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,88 +1579,103 @@
       <c r="A31" s="1">
         <v>43719</v>
       </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43720</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43721</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43722</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43723</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43724</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43725</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43726</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43727</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43728</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43729</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43730</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43731</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43732</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43733</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43734</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43735</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43736</v>
       </c>
@@ -2018,8 +2069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2309,7 +2360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43721</v>
       </c>
@@ -2317,15 +2368,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43722</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43723</v>
       </c>
@@ -2333,67 +2387,67 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43724</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43725</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43726</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43727</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43728</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43729</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43730</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43731</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43732</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43733</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43734</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43735</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43736</v>
       </c>

--- a/personalworksheet.xlsx
+++ b/personalworksheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="spring" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,6 +935,9 @@
       <c r="A41" s="1">
         <v>43723</v>
       </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -1326,7 +1329,7 @@
   <dimension ref="A1:B124"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,6 +1622,9 @@
       <c r="A36" s="1">
         <v>43724</v>
       </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -2069,7 +2075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>

--- a/personalworksheet.xlsx
+++ b/personalworksheet.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\final\gitws\PIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\saikiran\courses\GITWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0837ED7E-3796-4E0F-88BB-4AEE522A36D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spring" sheetId="1" r:id="rId1"/>
-    <sheet name="gym" sheetId="2" r:id="rId2"/>
-    <sheet name="spring boot" sheetId="3" r:id="rId3"/>
+    <sheet name="angular" sheetId="4" r:id="rId2"/>
+    <sheet name="gym" sheetId="2" r:id="rId3"/>
+    <sheet name="spring boot" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -170,12 +172,60 @@
   </si>
   <si>
     <t>componentscan annotaion and tag</t>
+  </si>
+  <si>
+    <t>spring boot data jpa</t>
+  </si>
+  <si>
+    <t>lambida expressions with return type and parameters and started connection pools.</t>
+  </si>
+  <si>
+    <t>factory classes and factory-method attribute of &lt;bean&gt; and started working with properties files.</t>
+  </si>
+  <si>
+    <t>working properties calss and started i18n application</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ResourceBundle class and working with i18n applications</t>
+  </si>
+  <si>
+    <t>intreduction of angular</t>
+  </si>
+  <si>
+    <t>Java Script started</t>
+  </si>
+  <si>
+    <t>no class</t>
+  </si>
+  <si>
+    <t>datatypes</t>
+  </si>
+  <si>
+    <t>functions and arrays</t>
+  </si>
+  <si>
+    <t>Objects</t>
+  </si>
+  <si>
+    <t>about java script engine</t>
+  </si>
+  <si>
+    <t>classes</t>
+  </si>
+  <si>
+    <t>arrow functions and started DOM</t>
+  </si>
+  <si>
+    <t>Dom nodes and elemens and its functions</t>
+  </si>
+  <si>
+    <t>manupulating DOM with java script</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -501,11 +551,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,20 +988,41 @@
       <c r="B41" t="s">
         <v>2</v>
       </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43724</v>
       </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43725</v>
       </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43726</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1325,11 +1396,181 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A04D1B-53F5-49B7-B72F-7A336378F214}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>43713</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43714</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43715</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43716</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43717</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43718</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43719</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43720</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43721</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43722</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43723</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43724</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43725</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43726</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43727</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,15 +1871,24 @@
       <c r="A37" s="1">
         <v>43725</v>
       </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43726</v>
       </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43727</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2071,12 +2321,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2392,40 +2642,64 @@
       <c r="B35" t="s">
         <v>2</v>
       </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43724</v>
       </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43725</v>
       </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43726</v>
       </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43727</v>
       </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43728</v>
       </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43729</v>
       </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43730</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">

--- a/personalworksheet.xlsx
+++ b/personalworksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\saikiran\courses\GITWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0837ED7E-3796-4E0F-88BB-4AEE522A36D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2E548A-B82F-4F41-818E-179EC6EC633C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spring" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -220,6 +220,45 @@
   </si>
   <si>
     <t>manupulating DOM with java script</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Scope annotation and Environment Interface</t>
+  </si>
+  <si>
+    <t>Factory beans and @postConstruct ,@preDestory ,@inject and @singleton,@scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @autowired,@primary,@qualifier and @Resource</t>
+  </si>
+  <si>
+    <t>resourceBundlemessagesource</t>
+  </si>
+  <si>
+    <t>about @configuration and @componentscan ,@lazy,@scope,@value</t>
+  </si>
+  <si>
+    <t>web jars and thymeleaf Template Engine</t>
+  </si>
+  <si>
+    <t>spring boot web</t>
+  </si>
+  <si>
+    <t>TypeScript</t>
+  </si>
+  <si>
+    <t>package.json and package-lock.json and lite server</t>
+  </si>
+  <si>
+    <t>npm</t>
+  </si>
+  <si>
+    <t>angular indro.</t>
+  </si>
+  <si>
+    <t>events and jquery</t>
   </si>
 </sst>
 </file>
@@ -554,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,98 +1068,140 @@
       <c r="A45" s="1">
         <v>43727</v>
       </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43728</v>
       </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43729</v>
       </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43730</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43731</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43732</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43733</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43734</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43735</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43736</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43737</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43738</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43739</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43740</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43741</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43742</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43743</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43744</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43745</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43746</v>
       </c>
@@ -1397,17 +1478,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A04D1B-53F5-49B7-B72F-7A336378F214}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1558,6 +1639,105 @@
       </c>
       <c r="B15" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43728</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43729</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43730</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43731</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43732</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43733</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43734</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43735</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43736</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43737</v>
+      </c>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43738</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43739</v>
       </c>
     </row>
   </sheetData>
@@ -1569,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1895,35 +2075,56 @@
       <c r="A40" s="1">
         <v>43728</v>
       </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43729</v>
       </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43730</v>
       </c>
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43731</v>
       </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43732</v>
       </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43733</v>
       </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43734</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2325,8 +2526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2693,6 +2894,9 @@
       <c r="B41" t="s">
         <v>2</v>
       </c>
+      <c r="C41" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -2701,113 +2905,137 @@
       <c r="B42" t="s">
         <v>2</v>
       </c>
+      <c r="C42" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43731</v>
       </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43732</v>
       </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43733</v>
       </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43734</v>
       </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43735</v>
       </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43736</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43737</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43738</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43739</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43740</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43741</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43742</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43743</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43744</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43745</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43746</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43747</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43748</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43749</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43750</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43751</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43752</v>
       </c>

--- a/personalworksheet.xlsx
+++ b/personalworksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\saikiran\courses\GITWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2E548A-B82F-4F41-818E-179EC6EC633C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EC23F8-6A51-4CFE-8F0C-A80D761853AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spring" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,25 +1155,40 @@
       <c r="A54" s="1">
         <v>43736</v>
       </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43737</v>
       </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43738</v>
       </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43739</v>
       </c>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43740</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1478,10 +1493,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A04D1B-53F5-49B7-B72F-7A336378F214}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1716,28 +1731,58 @@
       <c r="A23" s="1">
         <v>43735</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43736</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43737</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43738</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43739</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43740</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43741</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43742</v>
       </c>
     </row>
   </sheetData>
@@ -1749,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2131,88 +2176,103 @@
       <c r="A47" s="1">
         <v>43735</v>
       </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43736</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43737</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43738</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43739</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43740</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43741</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43742</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43743</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43744</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43745</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43746</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43747</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43748</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43749</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43750</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43751</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43752</v>
       </c>
@@ -2526,7 +2586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>

--- a/personalworksheet.xlsx
+++ b/personalworksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\saikiran\courses\GITWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EC23F8-6A51-4CFE-8F0C-A80D761853AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4806F5F1-61F5-4789-B9AE-7403D5E20CF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spring" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,6 +1195,9 @@
       <c r="A59" s="1">
         <v>43741</v>
       </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
@@ -1495,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A04D1B-53F5-49B7-B72F-7A336378F214}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1779,6 +1782,9 @@
       <c r="A29" s="1">
         <v>43741</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -1794,8 +1800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2216,10 +2222,16 @@
       <c r="A52" s="1">
         <v>43740</v>
       </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43741</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2586,8 +2598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3029,35 +3041,56 @@
       <c r="A50" s="1">
         <v>43738</v>
       </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43739</v>
       </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43740</v>
       </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43741</v>
       </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43742</v>
       </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43743</v>
       </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43744</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">

--- a/personalworksheet.xlsx
+++ b/personalworksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\saikiran\courses\GITWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4806F5F1-61F5-4789-B9AE-7403D5E20CF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55493461-75E3-4A44-B493-82A18EB20381}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -594,7 +594,7 @@
   <dimension ref="A1:C117"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58:B59"/>
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,103 +1203,124 @@
       <c r="A60" s="1">
         <v>43742</v>
       </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43743</v>
       </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43744</v>
       </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43745</v>
       </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43746</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43747</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43748</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43749</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43750</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43751</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43752</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43753</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43754</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43755</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43756</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43757</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43758</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43759</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43760</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43761</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43762</v>
       </c>
@@ -1496,10 +1517,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A04D1B-53F5-49B7-B72F-7A336378F214}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:B29"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1790,6 +1811,87 @@
       <c r="A30" s="1">
         <v>43742</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43743</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43744</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43745</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43746</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43747</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43748</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43751</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43752</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43753</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43754</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1800,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2238,20 +2340,32 @@
       <c r="A54" s="1">
         <v>43742</v>
       </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43743</v>
       </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43744</v>
       </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43745</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2598,8 +2712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3082,7 +3196,7 @@
         <v>43743</v>
       </c>
       <c r="B55" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -3090,7 +3204,7 @@
         <v>43744</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">

--- a/personalworksheet.xlsx
+++ b/personalworksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\saikiran\courses\GITWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55493461-75E3-4A44-B493-82A18EB20381}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E87A222-F3E3-4955-9F77-E074DD509F87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,155 +1252,215 @@
         <v>43748</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43749</v>
       </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43750</v>
       </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43751</v>
       </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43752</v>
       </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43753</v>
       </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43754</v>
       </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43755</v>
       </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43756</v>
       </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43757</v>
       </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43758</v>
       </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43759</v>
       </c>
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43760</v>
       </c>
+      <c r="B78" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43761</v>
       </c>
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43762</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43763</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43764</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43765</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43766</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43767</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43768</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43769</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43770</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43771</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43772</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43773</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43774</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43775</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43776</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43777</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43778</v>
       </c>
@@ -1517,10 +1577,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A04D1B-53F5-49B7-B72F-7A336378F214}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,37 +1920,177 @@
         <v>43748</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43749</v>
       </c>
+      <c r="B37" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43750</v>
       </c>
+      <c r="B38" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43751</v>
       </c>
+      <c r="B39" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43752</v>
       </c>
+      <c r="B40" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43753</v>
       </c>
+      <c r="B41" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43754</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43755</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43756</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43757</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43758</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43759</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43760</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43761</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43762</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43763</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43764</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43765</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43766</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>43767</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43768</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43769</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>43770</v>
       </c>
     </row>
   </sheetData>
@@ -2712,8 +2912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:B56"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3211,118 +3411,181 @@
       <c r="A57" s="1">
         <v>43745</v>
       </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43746</v>
       </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43747</v>
       </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43748</v>
       </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43749</v>
       </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43750</v>
       </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43751</v>
       </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43752</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43753</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43754</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43755</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43756</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43757</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43758</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43759</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43760</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43761</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43762</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43763</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43764</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43765</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43766</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43767</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43768</v>
       </c>
